--- a/Module-3 _Digital Marketing/Soha_OFF PAGE ACTIVITY.xlsx
+++ b/Module-3 _Digital Marketing/Soha_OFF PAGE ACTIVITY.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Module-3 _Digital Marketing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FCAB00-3F06-467A-98BD-7F68F69502F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="WEB 2.0 " sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CLASSIFIED ADS " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PRESS RELEASE " sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SOCIAL BOOKMARKING " sheetId="4" r:id="rId7"/>
+    <sheet name="WEB 2.0 " sheetId="1" r:id="rId1"/>
+    <sheet name="CLASSIFIED ADS " sheetId="2" r:id="rId2"/>
+    <sheet name="PRESS RELEASE " sheetId="3" r:id="rId3"/>
+    <sheet name="SOCIAL BOOKMARKING " sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
   <si>
     <t>Sample Work :</t>
   </si>
@@ -109,12 +118,6 @@
     <t>https://www.adlandpro.com/ad/43440717/Digital-Marketing-Course-in-Ahmedabad__Classes_200__around_ahmedabad.aspx</t>
   </si>
   <si>
-    <t>https://ahmedabad.craigslist.org/cls/d/digital-marketing-course-in-vadodara/7876423518.html</t>
-  </si>
-  <si>
-    <t>http://www.innetads.com/post/post-free-ads-op.php</t>
-  </si>
-  <si>
     <t>Classified ads are online listings where people can buy, sell, or trade items and services. Using SEO with classified ads helps improve their visibility in search engines, attracting more potential customers and increasing engagement with the listings.</t>
   </si>
   <si>
@@ -233,129 +236,140 @@
   </si>
   <si>
     <t>Social bookmarking is a way for users to save and share links to their favorite websites on social bookmarking sites. For SEO, it boosts website visibility and traffic by allowing more people to discover and access content through shared links.</t>
+  </si>
+  <si>
+    <t>https://medium.com/@sohasumra10/digital-marketing-course-in-surat-boost-your-career-in-the-digital-era-e8b722d2d77e</t>
+  </si>
+  <si>
+    <t>https://post.craigslist.org/manage/7876423518?action=display&amp;go=display</t>
+  </si>
+  <si>
+    <t>http://www.innetads.com/view/item-3299728-Learn-Digital-Marketing-in-Surat-From-Basics-to-Advanced-Strategies.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -363,7 +377,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -397,122 +411,79 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -702,29 +673,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.63"/>
-    <col customWidth="1" min="3" max="3" width="30.13"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -735,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -746,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -768,12 +744,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -784,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -798,7 +774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -812,73 +788,76 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C5"/>
-    <hyperlink r:id="rId2" ref="C6"/>
-    <hyperlink r:id="rId3" ref="C7"/>
-    <hyperlink r:id="rId4" ref="D13"/>
-    <hyperlink r:id="rId5" ref="D14"/>
-    <hyperlink r:id="rId6" ref="D15"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.5"/>
-    <col customWidth="1" min="3" max="3" width="22.25"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -889,45 +868,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -938,90 +917,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A5"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C12"/>
-    <hyperlink r:id="rId8" ref="D12"/>
-    <hyperlink r:id="rId9" ref="C13"/>
-    <hyperlink r:id="rId10" ref="D13"/>
-    <hyperlink r:id="rId11" ref="C14"/>
-    <hyperlink r:id="rId12" ref="D14"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1032,23 +1016,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1059,372 +1043,377 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B14:D14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A5"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="C10"/>
-    <hyperlink r:id="rId4" ref="D10"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.75"/>
-    <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="6" max="6" width="25.38"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="E4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="16">
+      <c r="F13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1435,94 +1424,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>46</v>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="E3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
-    <hyperlink r:id="rId5" ref="D4"/>
-    <hyperlink r:id="rId6" ref="E4"/>
-    <hyperlink r:id="rId7" ref="C5"/>
-    <hyperlink r:id="rId8" ref="D5"/>
-    <hyperlink r:id="rId9" ref="E5"/>
-    <hyperlink r:id="rId10" ref="C6"/>
-    <hyperlink r:id="rId11" ref="D6"/>
-    <hyperlink r:id="rId12" ref="E6"/>
-    <hyperlink r:id="rId13" ref="C7"/>
-    <hyperlink r:id="rId14" ref="D7"/>
-    <hyperlink r:id="rId15" ref="E7"/>
-    <hyperlink r:id="rId16" ref="C8"/>
-    <hyperlink r:id="rId17" ref="D8"/>
-    <hyperlink r:id="rId18" ref="E8"/>
-    <hyperlink r:id="rId19" ref="C9"/>
-    <hyperlink r:id="rId20" ref="D9"/>
-    <hyperlink r:id="rId21" ref="E9"/>
-    <hyperlink r:id="rId22" ref="C10"/>
-    <hyperlink r:id="rId23" ref="D10"/>
-    <hyperlink r:id="rId24" ref="E10"/>
-    <hyperlink r:id="rId25" ref="C11"/>
-    <hyperlink r:id="rId26" ref="D11"/>
-    <hyperlink r:id="rId27" ref="E11"/>
-    <hyperlink r:id="rId28" ref="C12"/>
-    <hyperlink r:id="rId29" ref="D12"/>
-    <hyperlink r:id="rId30" ref="E12"/>
-    <hyperlink r:id="rId31" ref="C13"/>
-    <hyperlink r:id="rId32" ref="D13"/>
-    <hyperlink r:id="rId33" ref="E13"/>
-    <hyperlink r:id="rId34" ref="C18"/>
-    <hyperlink r:id="rId35" ref="D18"/>
-    <hyperlink r:id="rId36" ref="C19"/>
-    <hyperlink r:id="rId37" ref="D19"/>
-    <hyperlink r:id="rId38" ref="C20"/>
-    <hyperlink r:id="rId39" ref="D20"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D7" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="E7" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="E9" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="E10" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="C11" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D11" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="E11" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="C12" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D12" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="E12" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="C13" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D13" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="E13" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D18" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D20" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
   </hyperlinks>
-  <drawing r:id="rId40"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>